--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F11-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F11-Gp1ba.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>Gp1ba</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>Gp1ba</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1089446666666667</v>
+        <v>0.2892773333333333</v>
       </c>
       <c r="H2">
-        <v>0.326834</v>
+        <v>0.8678319999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N2">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O2">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P2">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q2">
-        <v>0.3542675199303334</v>
+        <v>1.065503446270667</v>
       </c>
       <c r="R2">
-        <v>2.125605119582</v>
+        <v>6.393020677624</v>
       </c>
       <c r="S2">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="T2">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1089446666666667</v>
+        <v>0.2892773333333333</v>
       </c>
       <c r="H3">
-        <v>0.326834</v>
+        <v>0.8678319999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>3.437017</v>
       </c>
       <c r="O3">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P3">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q3">
-        <v>0.1248148904642222</v>
+        <v>0.3314170374604445</v>
       </c>
       <c r="R3">
-        <v>1.123334014178</v>
+        <v>2.982753337144</v>
       </c>
       <c r="S3">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="T3">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1089446666666667</v>
+        <v>0.2892773333333333</v>
       </c>
       <c r="H4">
-        <v>0.326834</v>
+        <v>0.8678319999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N4">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O4">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P4">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q4">
-        <v>0.1184912699173333</v>
+        <v>0.1449990097982222</v>
       </c>
       <c r="R4">
-        <v>1.066421429256</v>
+        <v>1.304991088184</v>
       </c>
       <c r="S4">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="T4">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1089446666666667</v>
+        <v>0.2892773333333333</v>
       </c>
       <c r="H5">
-        <v>0.326834</v>
+        <v>0.8678319999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N5">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O5">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P5">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q5">
-        <v>0.2451223406046667</v>
+        <v>0.5468705542626667</v>
       </c>
       <c r="R5">
-        <v>1.470734043628</v>
+        <v>3.281223325576</v>
       </c>
       <c r="S5">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="T5">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,19 +782,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1089446666666667</v>
+        <v>0.2892773333333333</v>
       </c>
       <c r="H6">
-        <v>0.326834</v>
+        <v>0.8678319999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N6">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O6">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P6">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q6">
-        <v>0.2806041296275555</v>
+        <v>0.8760665685706667</v>
       </c>
       <c r="R6">
-        <v>2.525437166648</v>
+        <v>7.884599117135999</v>
       </c>
       <c r="S6">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="T6">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,19 +844,19 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1089446666666667</v>
+        <v>0.2892773333333333</v>
       </c>
       <c r="H7">
-        <v>0.326834</v>
+        <v>0.8678319999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N7">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O7">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P7">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q7">
-        <v>0.2300209393197778</v>
+        <v>0.24506707848</v>
       </c>
       <c r="R7">
-        <v>2.070188453878</v>
+        <v>2.20560370632</v>
       </c>
       <c r="S7">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="T7">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
     </row>
   </sheetData>
